--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1657.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1657.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.747449937167268</v>
+        <v>3.377249002456665</v>
       </c>
       <c r="B1">
-        <v>3.361289787208295</v>
+        <v>2.675835371017456</v>
       </c>
       <c r="C1">
-        <v>2.845449237135949</v>
+        <v>2.316540002822876</v>
       </c>
       <c r="D1">
-        <v>2.291209002019518</v>
+        <v>2.475037813186646</v>
       </c>
       <c r="E1">
-        <v>1.385004215579323</v>
+        <v>2.979245901107788</v>
       </c>
     </row>
   </sheetData>
